--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4186451.875858209</v>
+        <v>4184571.696087879</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7383521.371511233</v>
+        <v>7383521.371511235</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>134.257450437519</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>177.7552821573281</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>190.6440902478826</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.31590541686257</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>110.7937263796629</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>123.2751712461476</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586874</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>60.92600812502312</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49.38162151975496</v>
+        <v>88.70212691485435</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="C16" t="n">
-        <v>5.107731335945886</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>73.38052139181458</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S19" t="n">
         <v>186.8801586578919</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981167</v>
+        <v>105.2253177460336</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108797</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263835</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>70.41761368552005</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578919</v>
+        <v>22.98075994447305</v>
       </c>
       <c r="T22" t="n">
         <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981167</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108797</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
         <v>214.6690040633258</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>73.38052139181481</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>189.4081449854704</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2542,7 +2542,7 @@
         <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>70.41761368552078</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578919</v>
@@ -2767,10 +2767,10 @@
         <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
-        <v>275.1967010728659</v>
+        <v>111.4522747958121</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>275.4823470108796</v>
@@ -2779,7 +2779,7 @@
         <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>91.46935119348083</v>
+        <v>26.54790520245136</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2330.329327562361</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1999.266440218791</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1646.497784948677</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1273.032026687597</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>882.8926947117852</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>709.5665374816297</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>709.5665374816297</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>709.5665374816297</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>709.5665374816297</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>709.5665374816297</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>709.5665374816297</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X4" t="n">
-        <v>709.5665374816297</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1395.51153118508</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C5" t="n">
-        <v>1395.51153118508</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>1037.245832578329</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>651.4575799800848</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2328.401815203218</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>1701.17427158023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>589.4492616060807</v>
+        <v>709.1532345052515</v>
       </c>
       <c r="C8" t="n">
-        <v>589.4492616060807</v>
+        <v>340.1907175648398</v>
       </c>
       <c r="D8" t="n">
-        <v>589.4492616060807</v>
+        <v>340.1907175648398</v>
       </c>
       <c r="E8" t="n">
-        <v>589.4492616060807</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>178.4633568164731</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224074</v>
@@ -4814,16 +4814,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907094</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.0491016702024</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785277</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661919</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858884</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,61 +5030,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>932.1883377003194</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>441.9005583181196</v>
+        <v>333.7051469529985</v>
       </c>
       <c r="C13" t="n">
-        <v>441.9005583181196</v>
+        <v>333.7051469529985</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405894</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609671</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550802</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181196</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181196</v>
+        <v>736.1461909267683</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181196</v>
+        <v>515.3536117832382</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,16 +5294,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201019</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609668</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550799</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181193</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>213.911007420102</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201019</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,22 +5525,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
         <v>1302.911127126629</v>
@@ -5610,7 +5610,7 @@
         <v>2302.237516093321</v>
       </c>
       <c r="P18" t="n">
-        <v>2507.25999687553</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.3388302398966</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C19" t="n">
-        <v>171.3388302398966</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>171.3388302398966</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>171.3388302398966</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>120.53002873665</v>
@@ -5677,10 +5677,10 @@
         <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172993</v>
+        <v>540.287967617299</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969363</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5689,34 +5689,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T19" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U19" t="n">
-        <v>1119.613926299195</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V19" t="n">
-        <v>876.0816111495825</v>
+        <v>913.4027961738266</v>
       </c>
       <c r="W19" t="n">
-        <v>597.816614168896</v>
+        <v>635.1377991931402</v>
       </c>
       <c r="X19" t="n">
-        <v>380.9792363271526</v>
+        <v>635.1377991931402</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.3388302398966</v>
+        <v>425.4973931058842</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,64 +5738,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>474.8900731662875</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>1841.189502980821</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729323</v>
+        <v>233.9780119864046</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729323</v>
+        <v>233.9780119864046</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729323</v>
+        <v>233.9780119864046</v>
       </c>
       <c r="E22" t="n">
-        <v>168.3459941729323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>120.53002873665</v>
@@ -5917,43 +5917,43 @@
         <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969363</v>
+        <v>822.7849551969368</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q22" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1463.222409842836</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1250.589167688615</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449749</v>
+        <v>972.612701958447</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953621</v>
+        <v>729.0803868088343</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146756</v>
+        <v>450.8153898281478</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729323</v>
+        <v>233.9780119864046</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729323</v>
+        <v>233.9780119864046</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.3388302398969</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C25" t="n">
-        <v>171.3388302398969</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>171.3388302398969</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>171.3388302398969</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028587</v>
@@ -6148,13 +6148,13 @@
         <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
         <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969363</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
@@ -6163,34 +6163,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S25" t="n">
         <v>1397.590392029363</v>
       </c>
       <c r="T25" t="n">
-        <v>1397.590392029363</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U25" t="n">
-        <v>1119.613926299195</v>
+        <v>993.635791303961</v>
       </c>
       <c r="V25" t="n">
-        <v>876.0816111495826</v>
+        <v>750.1034761543483</v>
       </c>
       <c r="W25" t="n">
-        <v>597.8166141688961</v>
+        <v>471.8384791736618</v>
       </c>
       <c r="X25" t="n">
-        <v>380.9792363271529</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.3388302398969</v>
+        <v>255.0011013319186</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366499</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
-        <v>822.784955196936</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
@@ -6403,31 +6403,31 @@
         <v>1536.594541272926</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875142</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449748</v>
+        <v>972.456164143937</v>
       </c>
       <c r="V28" t="n">
-        <v>663.448368995362</v>
+        <v>972.456164143937</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146756</v>
+        <v>694.1911671632506</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729324</v>
+        <v>477.3537893215074</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729324</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,19 +6540,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.6103754941049</v>
+        <v>281.0563059452531</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028586</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028586</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028586</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028586</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K31" t="n">
         <v>281.6456777937157</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S31" t="n">
-        <v>1586.358229057536</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1586.358229057536</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U31" t="n">
-        <v>1308.381763327369</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V31" t="n">
-        <v>1064.849448177756</v>
+        <v>776.1586807676828</v>
       </c>
       <c r="W31" t="n">
-        <v>786.5844511970696</v>
+        <v>497.8936837869963</v>
       </c>
       <c r="X31" t="n">
-        <v>569.7470733553264</v>
+        <v>281.0563059452531</v>
       </c>
       <c r="Y31" t="n">
-        <v>360.1066672680704</v>
+        <v>281.0563059452531</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6686,64 +6686,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103123</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625495</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649685</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6941,13 +6941,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>745.6707680030233</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,10 +7175,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,10 +7199,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7254,25 +7254,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>452.0983189327497</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M39" t="n">
-        <v>1564.731711769082</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N39" t="n">
-        <v>1894.594339433115</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O39" t="n">
-        <v>2174.134404651812</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.156885434021</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7312,7 +7312,7 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083207</v>
@@ -7321,7 +7321,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,13 +7345,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010319</v>
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,16 +7497,16 @@
         <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>91.23759968302011</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>87.16935584025447</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>104.8749102765738</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.47535963978233</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>62.91120742583783</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>285.1031356539331</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>230.7151863772034</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,28 +9954,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>124.3400780863229</v>
+        <v>403.7628319612152</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,19 +10191,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>145.2351313103795</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.8724419039329</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,10 +11145,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>99.2338514984574</v>
+        <v>59.91334610335801</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="C16" t="n">
-        <v>162.1390897626819</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.791328856226</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729165</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>137.574821692501</v>
@@ -23899,16 +23899,16 @@
         <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>60.99987530540533</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856064</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808145</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>135.871674252083</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.791328856226</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729165</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
         <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>63.96278301169986</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856064</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808145</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>163.8993987134188</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263835</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>137.574821692501</v>
@@ -24373,7 +24373,7 @@
         <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>60.99987530540504</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808141</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>85.78855608739555</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
@@ -24607,7 +24607,7 @@
         <v>137.574821692501</v>
       </c>
       <c r="E28" t="n">
-        <v>64.975697635337</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
         <v>134.3803966972199</v>
@@ -24619,7 +24619,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856062</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808142</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>163.7444262770538</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
-        <v>64.73681857943562</v>
+        <v>129.658264570465</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856062</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808142</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.9185243122</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.918524312</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625248.7725826561</v>
+        <v>625248.772582656</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>625248.7725826561</v>
+        <v>625248.7725826562</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625248.7725826561</v>
+        <v>625248.7725826562</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>625248.7725826562</v>
+        <v>625248.7725826561</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
-        <v>768665.9667554812</v>
+        <v>768665.9667554811</v>
       </c>
       <c r="H2" t="n">
         <v>768665.9667554814</v>
       </c>
       <c r="I2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554814</v>
       </c>
       <c r="J2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554814</v>
       </c>
       <c r="K2" t="n">
         <v>768665.9667554813</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.725617677</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.725617677</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="P2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176766</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060568897</v>
+        <v>8832.521060569119</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>18678.59412427834</v>
+        <v>18678.59412427841</v>
       </c>
       <c r="H4" t="n">
-        <v>18678.59412427835</v>
+        <v>18678.5941242784</v>
       </c>
       <c r="I4" t="n">
         <v>18678.5941242784</v>
       </c>
       <c r="J4" t="n">
-        <v>18678.5941242784</v>
+        <v>18678.59412427841</v>
       </c>
       <c r="K4" t="n">
         <v>18678.59412427841</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275954</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.4568627596</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275958</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="H5" t="n">
         <v>92915.50246501787</v>
@@ -26491,13 +26491,13 @@
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150026</v>
+        <v>-29086.18991150023</v>
       </c>
       <c r="C6" t="n">
-        <v>560881.6893030443</v>
+        <v>560881.6893030442</v>
       </c>
       <c r="D6" t="n">
-        <v>560881.6893030445</v>
+        <v>560881.6893030441</v>
       </c>
       <c r="E6" t="n">
-        <v>130313.6344414802</v>
+        <v>130216.1753155083</v>
       </c>
       <c r="F6" t="n">
-        <v>655473.6709183765</v>
+        <v>655376.2117924045</v>
       </c>
       <c r="G6" t="n">
-        <v>648239.3491056162</v>
+        <v>648157.6830572512</v>
       </c>
       <c r="H6" t="n">
-        <v>657071.8701661852</v>
+        <v>656990.2041178206</v>
       </c>
       <c r="I6" t="n">
-        <v>657071.8701661851</v>
+        <v>656990.2041178206</v>
       </c>
       <c r="J6" t="n">
-        <v>480648.6509735922</v>
+        <v>480566.9849252277</v>
       </c>
       <c r="K6" t="n">
-        <v>657071.8701661851</v>
+        <v>656990.2041178205</v>
       </c>
       <c r="L6" t="n">
-        <v>610830.6508311793</v>
+        <v>610830.6508311795</v>
       </c>
       <c r="M6" t="n">
         <v>530535.1477010545</v>
       </c>
       <c r="N6" t="n">
-        <v>665336.1629348918</v>
+        <v>665336.1629348916</v>
       </c>
       <c r="O6" t="n">
-        <v>665336.162934892</v>
+        <v>665336.1629348915</v>
       </c>
       <c r="P6" t="n">
-        <v>665336.1629348914</v>
+        <v>665336.1629348916</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,10 +26759,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>116.9667170707703</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.74592769735757</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647188</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>229.1207635843833</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>25.80423010977515</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.1226826701055</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>271.1366436925989</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>290.5089987746475</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>191.2116351988049</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571134</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571139</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>401.6619767334865</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>420.3639292382673</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>532.8670379385735</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>387.2386125176821</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.4883924248565</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127687</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K19" t="n">
         <v>162.7430798556219</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758611</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>213.4866460137771</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>492.1965505854578</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127688</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K22" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L22" t="n">
         <v>261.2548382056399</v>
@@ -36291,13 +36291,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758611</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127691</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>434.7644551367891</v>
+        <v>714.1872090116815</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K28" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
         <v>261.2548382056399</v>
@@ -36765,13 +36765,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>427.5988335514877</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127696</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,13 +37154,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>555.2356492667885</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
@@ -37169,7 +37169,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>462.5180961366869</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>493.602672550759</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>316.5557073809155</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>246.8854746890071</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -37877,7 +37877,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>472.9319699494721</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
